--- a/infrastructure.xlsx
+++ b/infrastructure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA48E6AC-DF0D-4AB8-A328-E548CD6514D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F6511-4343-4530-BBDB-0C3292E63541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,20 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Store.Memory</t>
+  </si>
+  <si>
+    <t>Store.Web</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,12 +56,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -72,13 +175,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>346710</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>375286</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -93,17 +196,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785110" y="828675"/>
+          <a:off x="2785110" y="813435"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="25400">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -147,23 +251,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264795</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>293371</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325756</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Прямоугольник 15">
+        <xdr:cNvPr id="14" name="Прямоугольник 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C738C0F-A806-4243-B837-9E620EEC958D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -171,16 +275,94 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="874395" y="840105"/>
+          <a:off x="2735580" y="2019300"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="25400">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BookRepository</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Прямоугольник 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B299B525-976F-4746-AC0D-CCBD2D809CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="807720"/>
+          <a:ext cx="1247776" cy="230505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -547,14 +729,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/infrastructure.xlsx
+++ b/infrastructure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F6511-4343-4530-BBDB-0C3292E63541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A00743-A091-45A6-99F2-0D8D2FB573DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,13 +175,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>346710</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>375286</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -196,7 +196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785110" y="813435"/>
+          <a:off x="2785110" y="798195"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -205,7 +205,7 @@
         <a:noFill/>
         <a:ln w="25400">
           <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -253,14 +253,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>325756</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -275,7 +275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2735580" y="2019300"/>
+          <a:off x="2735580" y="2065020"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -284,7 +284,7 @@
         <a:noFill/>
         <a:ln w="25400">
           <a:solidFill>
-            <a:srgbClr val="00B050"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -329,16 +329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>394336</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462916</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -353,7 +353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="807720"/>
+          <a:off x="2872740" y="198120"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -394,6 +394,411 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Book</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363856</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Прямоугольник 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3047D5-9C4F-412D-AC8E-E04878ABE238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="3566160"/>
+          <a:ext cx="1247776" cy="230505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Прямоугольник 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3986C88C-C6C3-4629-8508-FEE2AFD34912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4061460"/>
+          <a:ext cx="1247776" cy="230505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SearchController</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Прямоугольник 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C779186A-0504-4E1B-81C4-206A08EAE03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4038600"/>
+          <a:ext cx="1165860" cy="228600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1165860"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 228600"/>
+            <a:gd name="connsiteX1" fmla="*/ 571271 w 1165860"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 228600"/>
+            <a:gd name="connsiteX2" fmla="*/ 1165860 w 1165860"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 228600"/>
+            <a:gd name="connsiteX3" fmla="*/ 1165860 w 1165860"/>
+            <a:gd name="connsiteY3" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX4" fmla="*/ 582930 w 1165860"/>
+            <a:gd name="connsiteY4" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 1165860"/>
+            <a:gd name="connsiteY5" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 1165860"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 228600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1165860" h="228600" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="199755" y="-14327"/>
+                <a:pt x="439971" y="43374"/>
+                <a:pt x="571271" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="702571" y="-43374"/>
+                <a:pt x="922660" y="23203"/>
+                <a:pt x="1165860" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1189759" y="101781"/>
+                <a:pt x="1164011" y="137465"/>
+                <a:pt x="1165860" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="981594" y="284343"/>
+                <a:pt x="788922" y="169415"/>
+                <a:pt x="582930" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="376938" y="287785"/>
+                <a:pt x="227474" y="225983"/>
+                <a:pt x="0" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-217" y="128917"/>
+                <a:pt x="25575" y="54299"/>
+                <a:pt x="0" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchScribble/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bookRepository</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Прямоугольник 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41967394-71BB-4FE2-8351-0DE43480164E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="4076701"/>
+          <a:ext cx="1440180" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View Index (/Search)</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1">
             <a:solidFill>
@@ -729,15 +1134,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -750,7 +1155,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -763,7 +1168,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -776,7 +1181,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -788,11 +1193,11 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -805,7 +1210,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -818,7 +1223,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -831,8 +1236,8 @@
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -845,7 +1250,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -858,7 +1263,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -870,11 +1275,11 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -887,7 +1292,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -900,7 +1305,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -913,7 +1318,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -926,8 +1331,8 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -940,7 +1345,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -953,7 +1358,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -965,11 +1370,11 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="M21" t="s">
+      <c r="L21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -982,7 +1387,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -995,7 +1400,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1008,7 +1413,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>

--- a/infrastructure.xlsx
+++ b/infrastructure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A00743-A091-45A6-99F2-0D8D2FB573DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133589A-FE1B-4266-8823-9F3544D36EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,15 +735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,7 +758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="4076701"/>
+          <a:off x="4579620" y="4061461"/>
           <a:ext cx="1440180" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -798,7 +798,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>View Index (/Search)</a:t>
+            <a:t>View/Search Index</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1">
             <a:solidFill>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/infrastructure.xlsx
+++ b/infrastructure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133589A-FE1B-4266-8823-9F3544D36EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F787B-9039-4400-BD2A-E020AE0BC5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,16 +172,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>375286</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489586</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -196,7 +196,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785110" y="798195"/>
+          <a:off x="4728210" y="790575"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -330,13 +330,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>462916</xdr:colOff>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
@@ -353,7 +353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2872740" y="198120"/>
+          <a:off x="2857500" y="198120"/>
           <a:ext cx="1247776" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -466,12 +466,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Но</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Index</a:t>
+            <a:t>me/Index</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1">
             <a:solidFill>
@@ -720,7 +728,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>bookRepository</a:t>
+            <a:t>bookService</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1">
             <a:solidFill>
@@ -799,6 +807,85 @@
               </a:solidFill>
             </a:rPr>
             <a:t>View/Search Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>417196</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Прямоугольник 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2DBB27-2CA2-4393-BEA6-74EAA16C245F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2827020" y="822960"/>
+          <a:ext cx="1247776" cy="230505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BookService</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1">
             <a:solidFill>
@@ -1137,7 +1224,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
